--- a/Student Info.xlsx
+++ b/Student Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FAB6DD-B5D6-4ED9-A838-600B98FDC398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFC3E2B-ED39-4401-B1F8-4629F5C3AFA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{754DE2B2-D7D8-4F91-8C4E-6FB27B1D6447}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="91">
   <si>
     <t>Katy Sun</t>
   </si>
@@ -283,6 +283,33 @@
   </si>
   <si>
     <t>Current</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>monday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EOW Saturday</t>
   </si>
 </sst>
 </file>
@@ -2477,22 +2504,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD92C2E5-55D9-4DF8-9DD4-6603AF59293C}">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" style="1"/>
-    <col min="2" max="3" width="16.5703125" style="8"/>
-    <col min="4" max="7" width="16.5703125" style="11"/>
-    <col min="8" max="11" width="16.5703125" style="8"/>
-    <col min="12" max="16384" width="16.5703125" style="1"/>
+    <col min="2" max="4" width="16.5703125" style="8"/>
+    <col min="5" max="8" width="16.5703125" style="11"/>
+    <col min="9" max="12" width="16.5703125" style="8"/>
+    <col min="13" max="16384" width="16.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>22</v>
       </c>
@@ -2503,46 +2530,49 @@
         <v>8</v>
       </c>
       <c r="D1" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="F1" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="G1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="H1" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="I1" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="J1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="K1" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="L1" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="M1" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="N1" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="O1" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="40" t="s">
+      <c r="Q1" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="40" t="s">
+      <c r="R1" s="40" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>23</v>
       </c>
@@ -2552,14 +2582,18 @@
       <c r="C2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="19">
-        <v>4</v>
+      <c r="D2" s="18" t="s">
+        <v>82</v>
       </c>
       <c r="E2" s="19">
         <v>4</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="F2" s="19">
+        <v>4</v>
+      </c>
+      <c r="G2" s="20">
+        <v>44809</v>
+      </c>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
       <c r="J2" s="20"/>
@@ -2567,12 +2601,13 @@
       <c r="L2" s="20"/>
       <c r="M2" s="20"/>
       <c r="N2" s="20"/>
-      <c r="P2" s="7" t="s">
+      <c r="O2" s="20"/>
+      <c r="Q2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="24"/>
-    </row>
-    <row r="3" spans="1:17" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R2" s="24"/>
+    </row>
+    <row r="3" spans="1:18" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>23</v>
       </c>
@@ -2582,14 +2617,18 @@
       <c r="C3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="19">
-        <v>1</v>
+      <c r="D3" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="E3" s="19">
         <v>1</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="F3" s="19">
+        <v>4</v>
+      </c>
+      <c r="G3" s="20">
+        <v>44809</v>
+      </c>
       <c r="H3" s="20"/>
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
@@ -2597,12 +2636,13 @@
       <c r="L3" s="20"/>
       <c r="M3" s="20"/>
       <c r="N3" s="20"/>
-      <c r="P3" s="7" t="s">
+      <c r="O3" s="20"/>
+      <c r="Q3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="Q3" s="23"/>
-    </row>
-    <row r="4" spans="1:17" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R3" s="23"/>
+    </row>
+    <row r="4" spans="1:18" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>24</v>
       </c>
@@ -2612,16 +2652,18 @@
       <c r="C4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="19">
-        <v>4</v>
+      <c r="D4" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="E4" s="19">
+        <v>4</v>
+      </c>
+      <c r="F4" s="19">
         <v>3</v>
       </c>
-      <c r="F4" s="20">
+      <c r="G4" s="20">
         <v>44807</v>
       </c>
-      <c r="G4" s="20"/>
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
@@ -2629,12 +2671,13 @@
       <c r="L4" s="20"/>
       <c r="M4" s="20"/>
       <c r="N4" s="20"/>
-      <c r="P4" s="7" t="s">
+      <c r="O4" s="20"/>
+      <c r="Q4" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="Q4" s="25"/>
-    </row>
-    <row r="5" spans="1:17" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R4" s="25"/>
+    </row>
+    <row r="5" spans="1:18" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>23</v>
       </c>
@@ -2644,13 +2687,15 @@
       <c r="C5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="19">
-        <v>4</v>
+      <c r="D5" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="E5" s="19">
         <v>4</v>
       </c>
-      <c r="F5" s="20"/>
+      <c r="F5" s="19">
+        <v>4</v>
+      </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
@@ -2659,12 +2704,13 @@
       <c r="L5" s="20"/>
       <c r="M5" s="20"/>
       <c r="N5" s="20"/>
-      <c r="P5" s="7" t="s">
+      <c r="O5" s="20"/>
+      <c r="Q5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="Q5" s="29"/>
-    </row>
-    <row r="6" spans="1:17" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R5" s="29"/>
+    </row>
+    <row r="6" spans="1:18" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>23</v>
       </c>
@@ -2674,16 +2720,18 @@
       <c r="C6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="19">
         <v>5</v>
       </c>
-      <c r="E6" s="19">
-        <v>4</v>
-      </c>
-      <c r="F6" s="20">
+      <c r="F6" s="19">
+        <v>4</v>
+      </c>
+      <c r="G6" s="20">
         <v>44809</v>
       </c>
-      <c r="G6" s="20"/>
       <c r="H6" s="20"/>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
@@ -2691,12 +2739,13 @@
       <c r="L6" s="20"/>
       <c r="M6" s="20"/>
       <c r="N6" s="20"/>
-      <c r="P6" s="7" t="s">
+      <c r="O6" s="20"/>
+      <c r="Q6" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="Q6" s="38"/>
-    </row>
-    <row r="7" spans="1:17" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R6" s="38"/>
+    </row>
+    <row r="7" spans="1:18" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>26</v>
       </c>
@@ -2706,16 +2755,18 @@
       <c r="C7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="19">
-        <v>4</v>
+      <c r="D7" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="E7" s="19">
+        <v>4</v>
+      </c>
+      <c r="F7" s="19">
         <v>3</v>
       </c>
-      <c r="F7" s="20">
+      <c r="G7" s="20">
         <v>44807</v>
       </c>
-      <c r="G7" s="20"/>
       <c r="H7" s="20"/>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
@@ -2723,12 +2774,13 @@
       <c r="L7" s="20"/>
       <c r="M7" s="20"/>
       <c r="N7" s="20"/>
-      <c r="P7" s="7" t="s">
+      <c r="O7" s="20"/>
+      <c r="Q7" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="Q7" s="42"/>
-    </row>
-    <row r="8" spans="1:17" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R7" s="42"/>
+    </row>
+    <row r="8" spans="1:18" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>25</v>
       </c>
@@ -2738,13 +2790,15 @@
       <c r="C8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="19">
-        <v>2</v>
+      <c r="D8" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="E8" s="19">
         <v>2</v>
       </c>
-      <c r="F8" s="20"/>
+      <c r="F8" s="19">
+        <v>2</v>
+      </c>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
       <c r="I8" s="20"/>
@@ -2753,8 +2807,9 @@
       <c r="L8" s="20"/>
       <c r="M8" s="20"/>
       <c r="N8" s="20"/>
-    </row>
-    <row r="9" spans="1:17" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O8" s="20"/>
+    </row>
+    <row r="9" spans="1:18" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>25</v>
       </c>
@@ -2764,16 +2819,18 @@
       <c r="C9" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="19">
         <v>5</v>
       </c>
-      <c r="E9" s="19">
-        <v>4</v>
-      </c>
-      <c r="F9" s="20">
+      <c r="F9" s="19">
+        <v>4</v>
+      </c>
+      <c r="G9" s="20">
         <v>44806</v>
       </c>
-      <c r="G9" s="20"/>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
@@ -2781,8 +2838,9 @@
       <c r="L9" s="20"/>
       <c r="M9" s="20"/>
       <c r="N9" s="20"/>
-    </row>
-    <row r="10" spans="1:17" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O9" s="20"/>
+    </row>
+    <row r="10" spans="1:18" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>23</v>
       </c>
@@ -2792,16 +2850,18 @@
       <c r="C10" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="19">
-        <v>-1</v>
+      <c r="D10" s="19" t="s">
+        <v>87</v>
       </c>
       <c r="E10" s="19">
         <v>-1</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="19">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="20">
         <v>44806</v>
       </c>
-      <c r="G10" s="20"/>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
@@ -2809,8 +2869,9 @@
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
       <c r="N10" s="20"/>
-    </row>
-    <row r="11" spans="1:17" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O10" s="20"/>
+    </row>
+    <row r="11" spans="1:18" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -2820,16 +2881,18 @@
       <c r="C11" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="19">
-        <v>4</v>
+      <c r="D11" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="E11" s="19">
+        <v>4</v>
+      </c>
+      <c r="F11" s="19">
         <v>3</v>
       </c>
-      <c r="F11" s="20">
+      <c r="G11" s="20">
         <v>44807</v>
       </c>
-      <c r="G11" s="20"/>
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
@@ -2837,8 +2900,9 @@
       <c r="L11" s="20"/>
       <c r="M11" s="20"/>
       <c r="N11" s="20"/>
-    </row>
-    <row r="12" spans="1:17" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O11" s="20"/>
+    </row>
+    <row r="12" spans="1:18" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>26</v>
       </c>
@@ -2848,13 +2912,15 @@
       <c r="C12" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="19">
-        <v>4</v>
+      <c r="D12" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="E12" s="19">
         <v>4</v>
       </c>
-      <c r="F12" s="20"/>
+      <c r="F12" s="19">
+        <v>4</v>
+      </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
@@ -2863,8 +2929,9 @@
       <c r="L12" s="20"/>
       <c r="M12" s="20"/>
       <c r="N12" s="20"/>
-    </row>
-    <row r="13" spans="1:17" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O12" s="20"/>
+    </row>
+    <row r="13" spans="1:18" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>23</v>
       </c>
@@ -2874,16 +2941,18 @@
       <c r="C13" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D13" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="36">
         <v>1</v>
       </c>
-      <c r="E13" s="36">
+      <c r="F13" s="36">
         <v>0</v>
       </c>
-      <c r="F13" s="37">
+      <c r="G13" s="37">
         <v>44806</v>
       </c>
-      <c r="G13" s="37"/>
       <c r="H13" s="37"/>
       <c r="I13" s="37"/>
       <c r="J13" s="37"/>
@@ -2891,8 +2960,9 @@
       <c r="L13" s="37"/>
       <c r="M13" s="37"/>
       <c r="N13" s="37"/>
-    </row>
-    <row r="14" spans="1:17" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O13" s="37"/>
+    </row>
+    <row r="14" spans="1:18" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>23</v>
       </c>
@@ -2902,13 +2972,15 @@
       <c r="C14" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="36">
-        <v>5</v>
+      <c r="D14" s="36" t="s">
+        <v>82</v>
       </c>
       <c r="E14" s="36">
         <v>5</v>
       </c>
-      <c r="F14" s="37"/>
+      <c r="F14" s="36">
+        <v>5</v>
+      </c>
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
       <c r="I14" s="37"/>
@@ -2917,8 +2989,9 @@
       <c r="L14" s="37"/>
       <c r="M14" s="37"/>
       <c r="N14" s="37"/>
-    </row>
-    <row r="15" spans="1:17" s="7" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O14" s="37"/>
+    </row>
+    <row r="15" spans="1:18" s="7" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
         <v>23</v>
       </c>
@@ -2928,13 +3001,15 @@
       <c r="C15" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="36">
-        <v>4</v>
+      <c r="D15" s="36" t="s">
+        <v>88</v>
       </c>
       <c r="E15" s="36">
         <v>4</v>
       </c>
-      <c r="F15" s="37"/>
+      <c r="F15" s="36">
+        <v>4</v>
+      </c>
       <c r="G15" s="37"/>
       <c r="H15" s="37"/>
       <c r="I15" s="37"/>
@@ -2943,8 +3018,9 @@
       <c r="L15" s="37"/>
       <c r="M15" s="37"/>
       <c r="N15" s="37"/>
-    </row>
-    <row r="16" spans="1:17" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O15" s="37"/>
+    </row>
+    <row r="16" spans="1:18" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>23</v>
       </c>
@@ -2954,13 +3030,15 @@
       <c r="C16" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="22">
-        <v>4</v>
+      <c r="D16" s="33" t="s">
+        <v>84</v>
       </c>
       <c r="E16" s="22">
         <v>4</v>
       </c>
-      <c r="F16" s="34"/>
+      <c r="F16" s="22">
+        <v>4</v>
+      </c>
       <c r="G16" s="34"/>
       <c r="H16" s="34"/>
       <c r="I16" s="34"/>
@@ -2969,8 +3047,9 @@
       <c r="L16" s="34"/>
       <c r="M16" s="34"/>
       <c r="N16" s="34"/>
-    </row>
-    <row r="17" spans="1:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O16" s="34"/>
+    </row>
+    <row r="17" spans="1:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>46</v>
       </c>
@@ -2980,16 +3059,18 @@
       <c r="C17" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="22">
         <v>5</v>
       </c>
-      <c r="E17" s="22">
-        <v>4</v>
-      </c>
-      <c r="F17" s="34">
+      <c r="F17" s="22">
+        <v>4</v>
+      </c>
+      <c r="G17" s="34">
         <v>44806</v>
       </c>
-      <c r="G17" s="34"/>
       <c r="H17" s="34"/>
       <c r="I17" s="34"/>
       <c r="J17" s="34"/>
@@ -2997,8 +3078,9 @@
       <c r="L17" s="34"/>
       <c r="M17" s="34"/>
       <c r="N17" s="34"/>
-    </row>
-    <row r="18" spans="1:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O17" s="34"/>
+    </row>
+    <row r="18" spans="1:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>23</v>
       </c>
@@ -3008,25 +3090,30 @@
       <c r="C18" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="22">
         <v>5</v>
       </c>
-      <c r="E18" s="22">
-        <v>4</v>
-      </c>
-      <c r="F18" s="34">
+      <c r="F18" s="22">
+        <v>4</v>
+      </c>
+      <c r="G18" s="34">
         <v>44805</v>
       </c>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
+      <c r="H18" s="34">
+        <v>44810</v>
+      </c>
       <c r="I18" s="34"/>
       <c r="J18" s="34"/>
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
       <c r="M18" s="34"/>
       <c r="N18" s="34"/>
-    </row>
-    <row r="19" spans="1:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O18" s="34"/>
+    </row>
+    <row r="19" spans="1:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>47</v>
       </c>
@@ -3036,13 +3123,15 @@
       <c r="C19" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="31">
-        <v>2</v>
+      <c r="D19" s="31" t="s">
+        <v>90</v>
       </c>
       <c r="E19" s="31">
         <v>2</v>
       </c>
-      <c r="F19" s="32"/>
+      <c r="F19" s="31">
+        <v>2</v>
+      </c>
       <c r="G19" s="32"/>
       <c r="H19" s="32"/>
       <c r="I19" s="32"/>
@@ -3051,8 +3140,9 @@
       <c r="L19" s="32"/>
       <c r="M19" s="32"/>
       <c r="N19" s="32"/>
-    </row>
-    <row r="20" spans="1:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O19" s="32"/>
+    </row>
+    <row r="20" spans="1:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
         <v>26</v>
       </c>
@@ -3062,13 +3152,15 @@
       <c r="C20" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="31">
-        <v>0</v>
+      <c r="D20" s="31" t="s">
+        <v>89</v>
       </c>
       <c r="E20" s="31">
         <v>0</v>
       </c>
-      <c r="F20" s="32"/>
+      <c r="F20" s="31">
+        <v>0</v>
+      </c>
       <c r="G20" s="32"/>
       <c r="H20" s="32"/>
       <c r="I20" s="32"/>
@@ -3077,8 +3169,9 @@
       <c r="L20" s="32"/>
       <c r="M20" s="32"/>
       <c r="N20" s="32"/>
-    </row>
-    <row r="21" spans="1:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O20" s="32"/>
+    </row>
+    <row r="21" spans="1:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>26</v>
       </c>
@@ -3088,16 +3181,18 @@
       <c r="C21" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="27">
-        <v>4</v>
+      <c r="D21" s="27" t="s">
+        <v>83</v>
       </c>
       <c r="E21" s="27">
+        <v>4</v>
+      </c>
+      <c r="F21" s="27">
         <v>3</v>
       </c>
-      <c r="F21" s="28">
+      <c r="G21" s="28">
         <v>44807</v>
       </c>
-      <c r="G21" s="28"/>
       <c r="H21" s="28"/>
       <c r="I21" s="28"/>
       <c r="J21" s="28"/>
@@ -3105,8 +3200,9 @@
       <c r="L21" s="28"/>
       <c r="M21" s="28"/>
       <c r="N21" s="28"/>
-    </row>
-    <row r="22" spans="1:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O21" s="28"/>
+    </row>
+    <row r="22" spans="1:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>26</v>
       </c>
@@ -3116,16 +3212,18 @@
       <c r="C22" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="27">
-        <v>4</v>
+      <c r="D22" s="27" t="s">
+        <v>83</v>
       </c>
       <c r="E22" s="27">
+        <v>4</v>
+      </c>
+      <c r="F22" s="27">
         <v>3</v>
       </c>
-      <c r="F22" s="28">
+      <c r="G22" s="28">
         <v>44807</v>
       </c>
-      <c r="G22" s="28"/>
       <c r="H22" s="28"/>
       <c r="I22" s="28"/>
       <c r="J22" s="28"/>
@@ -3133,8 +3231,9 @@
       <c r="L22" s="28"/>
       <c r="M22" s="28"/>
       <c r="N22" s="28"/>
-    </row>
-    <row r="23" spans="1:14" s="7" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O22" s="28"/>
+    </row>
+    <row r="23" spans="1:15" s="7" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>26</v>
       </c>
@@ -3144,16 +3243,18 @@
       <c r="C23" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="27">
-        <v>4</v>
+      <c r="D23" s="27" t="s">
+        <v>83</v>
       </c>
       <c r="E23" s="27">
+        <v>4</v>
+      </c>
+      <c r="F23" s="27">
         <v>3</v>
       </c>
-      <c r="F23" s="28">
+      <c r="G23" s="28">
         <v>44807</v>
       </c>
-      <c r="G23" s="28"/>
       <c r="H23" s="28"/>
       <c r="I23" s="28"/>
       <c r="J23" s="28"/>
@@ -3161,8 +3262,9 @@
       <c r="L23" s="28"/>
       <c r="M23" s="28"/>
       <c r="N23" s="28"/>
-    </row>
-    <row r="24" spans="1:14" s="7" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O23" s="28"/>
+    </row>
+    <row r="24" spans="1:15" s="7" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
         <v>26</v>
       </c>
@@ -3170,9 +3272,11 @@
         <v>76</v>
       </c>
       <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
+      <c r="D24" s="44" t="s">
+        <v>89</v>
+      </c>
       <c r="E24" s="44"/>
-      <c r="F24" s="45"/>
+      <c r="F24" s="44"/>
       <c r="G24" s="45"/>
       <c r="H24" s="45"/>
       <c r="I24" s="45"/>
@@ -3181,8 +3285,9 @@
       <c r="L24" s="45"/>
       <c r="M24" s="45"/>
       <c r="N24" s="45"/>
-    </row>
-    <row r="25" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O24" s="45"/>
+    </row>
+    <row r="25" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="47" t="s">
         <v>23</v>
       </c>
@@ -3194,7 +3299,7 @@
       </c>
       <c r="D25" s="48"/>
       <c r="E25" s="48"/>
-      <c r="F25" s="49"/>
+      <c r="F25" s="48"/>
       <c r="G25" s="49"/>
       <c r="H25" s="49"/>
       <c r="I25" s="49"/>
@@ -3203,8 +3308,9 @@
       <c r="L25" s="49"/>
       <c r="M25" s="49"/>
       <c r="N25" s="49"/>
-    </row>
-    <row r="26" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O25" s="49"/>
+    </row>
+    <row r="26" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="47" t="s">
         <v>23</v>
       </c>
@@ -3216,7 +3322,7 @@
       </c>
       <c r="D26" s="48"/>
       <c r="E26" s="48"/>
-      <c r="F26" s="49"/>
+      <c r="F26" s="48"/>
       <c r="G26" s="49"/>
       <c r="H26" s="49"/>
       <c r="I26" s="49"/>
@@ -3225,104 +3331,107 @@
       <c r="L26" s="49"/>
       <c r="M26" s="49"/>
       <c r="N26" s="49"/>
-    </row>
-    <row r="27" spans="1:14" s="7" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O26" s="49"/>
+    </row>
+    <row r="27" spans="1:15" s="7" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
-      <c r="F27" s="12"/>
+      <c r="F27" s="11"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
-    </row>
-    <row r="28" spans="1:14" s="7" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L27" s="12"/>
+    </row>
+    <row r="28" spans="1:15" s="7" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
-      <c r="F28" s="12"/>
+      <c r="F28" s="11"/>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
-    </row>
-    <row r="29" spans="1:14" s="11" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F29" s="12"/>
+      <c r="L28" s="12"/>
+    </row>
+    <row r="29" spans="1:15" s="11" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
-    </row>
-    <row r="30" spans="1:14" s="11" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F30" s="12"/>
+      <c r="L29" s="12"/>
+    </row>
+    <row r="30" spans="1:15" s="11" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
-    </row>
-    <row r="31" spans="1:14" s="11" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F31" s="12"/>
+      <c r="L30" s="12"/>
+    </row>
+    <row r="31" spans="1:15" s="11" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
-    </row>
-    <row r="32" spans="1:14" s="11" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F32" s="12"/>
+      <c r="L31" s="12"/>
+    </row>
+    <row r="32" spans="1:15" s="11" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
-    </row>
-    <row r="33" spans="6:11" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F33" s="12"/>
+      <c r="L32" s="12"/>
+    </row>
+    <row r="33" spans="7:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G33" s="12"/>
-      <c r="H33" s="9"/>
+      <c r="H33" s="12"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
-    </row>
-    <row r="34" spans="6:11" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F34" s="12"/>
+      <c r="L33" s="9"/>
+    </row>
+    <row r="34" spans="7:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G34" s="12"/>
-      <c r="H34" s="9"/>
+      <c r="H34" s="12"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
-    </row>
-    <row r="35" spans="6:11" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F35" s="12"/>
+      <c r="L34" s="9"/>
+    </row>
+    <row r="35" spans="7:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G35" s="12"/>
-      <c r="H35" s="9"/>
+      <c r="H35" s="12"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
-    </row>
-    <row r="36" spans="6:11" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F36" s="12"/>
+      <c r="L35" s="9"/>
+    </row>
+    <row r="36" spans="7:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G36" s="12"/>
-      <c r="H36" s="9"/>
+      <c r="H36" s="12"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
-    </row>
-    <row r="37" spans="6:11" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F37" s="12"/>
+      <c r="L36" s="9"/>
+    </row>
+    <row r="37" spans="7:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G37" s="12"/>
-      <c r="H37" s="9"/>
+      <c r="H37" s="12"/>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3336,13 +3445,15 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" style="1"/>
-    <col min="2" max="10" width="16.5703125" style="8"/>
+    <col min="2" max="2" width="16.5703125" style="8"/>
+    <col min="3" max="3" width="18.42578125" style="8" customWidth="1"/>
+    <col min="4" max="10" width="16.5703125" style="8"/>
     <col min="11" max="16384" width="16.5703125" style="1"/>
   </cols>
   <sheetData>
